--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1865499.870679303</v>
+        <v>1858482.855787592</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665971</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>160.0655515896125</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>115.9738437752621</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>66.12354205134254</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>69.46712896146747</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>100.6257594888055</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>376.0368885193218</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>22.96159132124588</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>30.28266751616599</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,13 +1107,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>75.5186256659387</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>12.77609278441097</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,28 +1293,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>104.5529353109706</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>8.71533338483448</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,13 +1530,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>56.5119402077288</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>40.71096332175367</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505273959</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>13.15507304950219</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185877</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710062</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2019,10 +2019,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>66.14085215535397</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>70.02215316756872</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,25 +2241,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>140.5678108961689</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>168.7448730824001</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>80.42833066742627</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2617,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
         <v>251.078595249801</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>149.1483768733863</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>106.5613625662734</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.8722505808161</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>103.2973384150642</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>76.27978370493953</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3556,7 +3556,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>183.1796758467</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>137.4124440129374</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.64843562452423</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4137,19 +4137,19 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
-        <v>223.4261454147154</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2311.057514205145</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C2" t="n">
-        <v>1942.094997264733</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1583.829298657983</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>1198.041046059738</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>787.0551412701309</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>369.0913331683178</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2580.003794275533</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2361.369127247596</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="V2" t="n">
-        <v>2311.057514205145</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W2" t="n">
-        <v>2311.057514205145</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X2" t="n">
-        <v>2311.057514205145</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y2" t="n">
-        <v>2311.057514205145</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4409,10 +4409,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>293.0479818810668</v>
+        <v>257.0633493392339</v>
       </c>
       <c r="C4" t="n">
-        <v>124.1117989531599</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>124.1117989531599</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>124.1117989531599</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>124.1117989531599</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>124.1117989531599</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4515,25 +4515,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>513.8405610245969</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>513.8405610245969</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X4" t="n">
-        <v>513.8405610245969</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="Y4" t="n">
-        <v>293.0479818810668</v>
+        <v>438.7118141694736</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1882.054803223514</v>
+        <v>1957.780595683986</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1588.818078743575</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>1230.552380136824</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>844.7641275385799</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>433.7782227489724</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X5" t="n">
-        <v>2268.654643287636</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y5" t="n">
-        <v>2268.654643287636</v>
+        <v>2344.380435748108</v>
       </c>
     </row>
     <row r="6">
@@ -4637,7 +4637,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="C7" t="n">
-        <v>559.1928012785273</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="D7" t="n">
-        <v>559.1928012785273</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="E7" t="n">
-        <v>411.2797076961342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>411.2797076961342</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>242.2799074344666</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>84.53153486699676</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1626.94664591678</v>
+        <v>940.9219833362301</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>940.9219833362301</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>940.9219833362301</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>555.1337307379858</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>144.1478259483783</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>130.2244218869692</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2684.243946791545</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2684.243946791545</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2684.243946791545</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U8" t="n">
-        <v>2684.243946791545</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.181059447974</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>2000.41240417786</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1626.94664591678</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1626.94664591678</v>
+        <v>940.9219833362301</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>295.8809182883532</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="C10" t="n">
-        <v>295.8809182883532</v>
+        <v>529.7758821321493</v>
       </c>
       <c r="D10" t="n">
-        <v>295.8809182883532</v>
+        <v>379.6592427198135</v>
       </c>
       <c r="E10" t="n">
-        <v>295.8809182883532</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="F10" t="n">
-        <v>295.8809182883532</v>
+        <v>231.7461491374204</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>62.7463488757528</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>62.7463488757528</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>62.7463488757528</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4986,28 +4986,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V10" t="n">
-        <v>295.8809182883532</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W10" t="n">
-        <v>295.8809182883532</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="X10" t="n">
-        <v>295.8809182883532</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="Y10" t="n">
-        <v>295.8809182883532</v>
+        <v>698.7120650600561</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5041,13 +5041,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>731.3177283550796</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C13" t="n">
-        <v>731.3177283550796</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D13" t="n">
-        <v>731.3177283550796</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E13" t="n">
-        <v>674.2349604684848</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1457.794085384414</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1457.794085384414</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1457.794085384414</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609664</v>
+        <v>1168.665446597972</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550796</v>
+        <v>1168.665446597972</v>
       </c>
       <c r="W13" t="n">
-        <v>731.3177283550796</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="X13" t="n">
-        <v>731.3177283550796</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="Y13" t="n">
-        <v>731.3177283550796</v>
+        <v>879.2482765610114</v>
       </c>
     </row>
     <row r="14">
@@ -5254,34 +5254,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822469</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>644.6755122555221</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>891.440640161986</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>1198.760773441948</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>2080.218333389736</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,46 +5412,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>595.52964222602</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>426.5934592981131</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383442</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V16" t="n">
-        <v>420.3226148324574</v>
+        <v>1044.311772267567</v>
       </c>
       <c r="W16" t="n">
-        <v>130.9054447954967</v>
+        <v>1044.311772267567</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028587</v>
+        <v>816.3222213695501</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>595.52964222602</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5509,58 +5509,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211719</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1028.859951698067</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,46 +5649,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1096.475226584133</v>
+        <v>729.1316371486756</v>
       </c>
       <c r="C19" t="n">
-        <v>927.5390436562259</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D19" t="n">
-        <v>777.4224042438901</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>629.509310661497</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>482.6193631635866</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>314.4440414834072</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>164.0260330313505</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5712,13 +5712,13 @@
         <v>1498.916270557902</v>
       </c>
       <c r="W19" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X19" t="n">
-        <v>1498.916270557902</v>
+        <v>981.5095496229242</v>
       </c>
       <c r="Y19" t="n">
-        <v>1278.123691414372</v>
+        <v>910.7801019789154</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,7 +5764,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5773,28 +5773,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1670.043068977053</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4326.074044281177</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C22" t="n">
-        <v>4326.074044281177</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D22" t="n">
-        <v>4184.086356507269</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>4036.173262924875</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>3889.283315426965</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>3721.107993746786</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U22" t="n">
-        <v>4326.074044281177</v>
+        <v>1128.546893723556</v>
       </c>
       <c r="V22" t="n">
-        <v>4326.074044281177</v>
+        <v>873.8624055176685</v>
       </c>
       <c r="W22" t="n">
-        <v>4326.074044281177</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="X22" t="n">
-        <v>4326.074044281177</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="Y22" t="n">
-        <v>4326.074044281177</v>
+        <v>584.4452354807079</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286132</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,7 +6220,7 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6229,7 +6229,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6238,7 +6238,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6259,19 +6259,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6499,16 +6499,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M30" t="n">
-        <v>1247.466478653857</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>527.3450129705744</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C31" t="n">
-        <v>527.3450129705744</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D31" t="n">
-        <v>527.3450129705744</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705744</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1037.266230900546</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>748.1375921141046</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V31" t="n">
-        <v>748.1375921141046</v>
+        <v>902.2298817210801</v>
       </c>
       <c r="W31" t="n">
-        <v>748.1375921141046</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="X31" t="n">
-        <v>748.1375921141046</v>
+        <v>612.8127116841194</v>
       </c>
       <c r="Y31" t="n">
-        <v>527.3450129705744</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,49 +6685,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>2458.626196373968</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>3158.474758001779</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>3795.657518945773</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>4075.19758416447</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>4565.745155698577</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S33" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T33" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U33" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X33" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y33" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>579.0685056491545</v>
+        <v>584.4452354807079</v>
       </c>
       <c r="C34" t="n">
-        <v>410.1323227212476</v>
+        <v>415.509052552801</v>
       </c>
       <c r="D34" t="n">
-        <v>410.1323227212476</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E34" t="n">
-        <v>410.1323227212476</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F34" t="n">
-        <v>410.1323227212476</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G34" t="n">
-        <v>247.6350999123425</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6882,28 +6882,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1283.500421245926</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>1283.500421245926</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>1283.500421245926</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.499100520942</v>
+        <v>994.083251208965</v>
       </c>
       <c r="X34" t="n">
-        <v>981.5095496229244</v>
+        <v>766.0937003109476</v>
       </c>
       <c r="Y34" t="n">
-        <v>760.7169704793943</v>
+        <v>766.0937003109476</v>
       </c>
     </row>
     <row r="35">
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,7 +7013,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1421.865983987256</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>1421.865983987256</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>1167.181495781369</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>877.7643257444088</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>649.7747748463914</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>428.9821957028613</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,31 +7168,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7253,22 +7253,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>841.8631140141288</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>844.0280401273991</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>554.6108700904385</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="41">
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,7 +7429,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7545,7 +7545,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
         <v>97.21709146028584</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1440.685527502827</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1440.685527502827</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1440.685527502827</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1440.685527502827</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1186.00103929694</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>896.5838692599799</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>668.5943183619626</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>447.8017392184324</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7651,22 +7651,22 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7727,22 +7727,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1273.233295391523</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1018.548807185636</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>729.1316371486756</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>729.1316371486756</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8531,16 +8531,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142015</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>234.4116509503174</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>253.7371603504737</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>62.79465928983228</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>52.4973336130526</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,19 +10190,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M30" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,7 +10445,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776745</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720748</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.096615172074</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10901,10 +10901,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11077,7 +11077,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714832</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11375,16 +11375,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M45" t="n">
-        <v>360.5026862907258</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23418,13 +23418,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>89.92202243884037</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>69.25338908203912</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.20792265079217e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>135.4603999687102</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871784</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>44.27839330891801</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>148.5625001845261</v>
       </c>
     </row>
     <row r="20">
@@ -24129,25 +24129,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>8.047662122043477</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>117.4924793161772</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>99.40364951451103</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24846,19 +24846,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>72.39918418500298</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>145.5762807575546</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,10 +25089,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>5.621317882561527</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>118.250222643325</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>145.2677773534497</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>103.0576765518773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>88.29721137609974</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>52.31591677926858</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26025,19 +26025,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
-        <v>62.81120698386189</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407083</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="13">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651768</v>
+        <v>513151.106165177</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651772</v>
@@ -26325,7 +26325,7 @@
         <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="G2" t="n">
         <v>488786.3246721358</v>
@@ -26334,28 +26334,28 @@
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="J2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="K2" t="n">
+        <v>488786.3246721359</v>
+      </c>
+      <c r="L2" t="n">
         <v>488786.324672136</v>
-      </c>
-      <c r="L2" t="n">
-        <v>488786.3246721358</v>
       </c>
       <c r="M2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.324672136</v>
       </c>
       <c r="O2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="P2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721358</v>
       </c>
     </row>
     <row r="3">
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
         <v>15045.6696214391</v>
@@ -26478,31 +26478,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316450.8093639996</v>
+        <v>-316450.8093639995</v>
       </c>
       <c r="C6" t="n">
-        <v>273517.0698505448</v>
+        <v>273517.0698505449</v>
       </c>
       <c r="D6" t="n">
-        <v>273517.0698505451</v>
+        <v>273517.069850545</v>
       </c>
       <c r="E6" t="n">
-        <v>-143406.7073749159</v>
+        <v>-144381.2986346376</v>
       </c>
       <c r="F6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422584</v>
       </c>
       <c r="G6" t="n">
-        <v>381753.3291019801</v>
+        <v>380778.7378422584</v>
       </c>
       <c r="H6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422585</v>
       </c>
       <c r="I6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422586</v>
       </c>
       <c r="J6" t="n">
-        <v>205330.1099093873</v>
+        <v>204355.5186496656</v>
       </c>
       <c r="K6" t="n">
-        <v>381753.3291019803</v>
+        <v>380778.7378422585</v>
       </c>
       <c r="L6" t="n">
-        <v>381753.3291019801</v>
+        <v>380778.7378422586</v>
       </c>
       <c r="M6" t="n">
-        <v>246952.3138681428</v>
+        <v>245977.7226084214</v>
       </c>
       <c r="N6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422586</v>
       </c>
       <c r="O6" t="n">
-        <v>381753.3291019802</v>
+        <v>380778.7378422585</v>
       </c>
       <c r="P6" t="n">
-        <v>381753.3291019803</v>
+        <v>380778.7378422584</v>
       </c>
     </row>
   </sheetData>
@@ -26746,25 +26746,25 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>163.8572211747447</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>58.44186903370947</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>101.1232790472853</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,10 +27554,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>86.70375988032768</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>45.199959188537</v>
@@ -27587,7 +27587,7 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>264.6471322822021</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>37.74728150147314</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27678,10 +27678,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>123.4723713253233</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>104.6829542761722</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27827,13 +27827,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27858,7 +27858,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>248.4041470984184</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>41.70230979040074</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>62.75686694808029</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>36.48462580370253</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,7 +28070,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32168,10 +32168,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32405,10 +32405,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -35023,10 +35023,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,22 +35251,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047527</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K12" t="n">
         <v>415.0406756005178</v>
@@ -35497,16 +35497,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>384.9870895382566</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>460.8305752819984</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>373.2190363402984</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>385.6919070110654</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M30" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37165,7 +37165,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K35" t="n">
         <v>528.689756130333</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37636,10 +37636,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>642.8663885318339</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37797,7 +37797,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109128</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -38095,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M45" t="n">
-        <v>670.927063341192</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980128</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1858482.855787592</v>
+        <v>1863422.118636623</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665971</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>300.8638984122743</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>115.9738437752621</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>66.12354205134254</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>5.511247540012855</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>376.0368885193218</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>22.96159132124588</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>80.74987568070232</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>75.5186256659387</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>129.997028240751</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>8.71533338483448</v>
+        <v>37.83808333974875</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>67.54228744660244</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,7 +1545,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>40.71096332175367</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>13.15507304950219</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>57.85017494300162</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1846,7 +1846,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>116.8645225501841</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -2061,16 +2061,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>70.02215316756872</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>127.6176159584071</v>
       </c>
       <c r="U22" t="n">
-        <v>168.7448730824001</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80.42833066742627</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>115.526976800218</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2952,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>115.5269768002181</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>106.5613625662734</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U32" t="n">
         <v>251.078595249801</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>103.2973384150642</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>183.1796758467005</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>76.27978370493953</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>224.8952567231525</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>137.4124440129374</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>190.6405752120382</v>
       </c>
       <c r="U43" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2107.607341885688</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1635.28076286629</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1249.492510268045</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>838.5066054784379</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4333,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2580.003794275533</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2361.369127247596</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.607341885688</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2107.607341885688</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2107.607341885688</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2107.607341885688</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>2107.607341885688</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,19 +4409,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>257.0633493392339</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1957.780595683986</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="C5" t="n">
-        <v>1588.818078743575</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D5" t="n">
-        <v>1230.552380136824</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E5" t="n">
-        <v>844.7641275385799</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>433.7782227489724</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2344.380435748108</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X5" t="n">
-        <v>2344.380435748108</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y5" t="n">
-        <v>2344.380435748108</v>
+        <v>2113.174258592771</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424003</v>
@@ -4655,7 +4655,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>246.1363086691491</v>
+        <v>391.878965009939</v>
       </c>
       <c r="C7" t="n">
-        <v>246.1363086691491</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>246.1363086691491</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
         <v>222.942782082032</v>
@@ -4755,22 +4755,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>646.5634532158258</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>646.5634532158258</v>
       </c>
       <c r="V7" t="n">
-        <v>246.1363086691491</v>
+        <v>391.878965009939</v>
       </c>
       <c r="W7" t="n">
-        <v>246.1363086691491</v>
+        <v>391.878965009939</v>
       </c>
       <c r="X7" t="n">
-        <v>246.1363086691491</v>
+        <v>391.878965009939</v>
       </c>
       <c r="Y7" t="n">
-        <v>246.1363086691491</v>
+        <v>391.878965009939</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>940.9219833362301</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="C8" t="n">
-        <v>940.9219833362301</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>940.9219833362301</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>555.1337307379858</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>144.1478259483783</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>130.2244218869692</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2565.83896148211</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548715</v>
+        <v>2565.83896148211</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2312.077176120202</v>
       </c>
       <c r="V8" t="n">
-        <v>2057.295728843236</v>
+        <v>1981.014288776631</v>
       </c>
       <c r="W8" t="n">
-        <v>1704.527073573122</v>
+        <v>1628.245633506517</v>
       </c>
       <c r="X8" t="n">
-        <v>1331.061315312042</v>
+        <v>1254.779875245437</v>
       </c>
       <c r="Y8" t="n">
-        <v>940.9219833362301</v>
+        <v>864.6405432696254</v>
       </c>
     </row>
     <row r="9">
@@ -4880,22 +4880,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>529.7758821321493</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>379.6592427198135</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>231.7461491374204</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>231.7461491374204</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="G10" t="n">
-        <v>62.7463488757528</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="H10" t="n">
-        <v>62.7463488757528</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="I10" t="n">
-        <v>62.7463488757528</v>
+        <v>92.16326802213086</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,37 +5038,37 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5077,16 +5077,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>233.7852434110091</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>644.6755122555218</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619858</v>
+        <v>563.7235867775513</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.2482765610114</v>
+        <v>799.8610847926851</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>630.9249018647782</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1457.794085384414</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1457.794085384414</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1457.794085384414</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1168.665446597972</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>1168.665446597972</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W13" t="n">
-        <v>879.2482765610114</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X13" t="n">
-        <v>879.2482765610114</v>
+        <v>981.5095496229249</v>
       </c>
       <c r="Y13" t="n">
-        <v>879.2482765610114</v>
+        <v>981.5095496229249</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>644.6755122555221</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>891.440640161986</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441948</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>595.52964222602</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>426.5934592981131</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473454</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473454</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473454</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267567</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W16" t="n">
-        <v>1044.311772267567</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X16" t="n">
-        <v>816.3222213695501</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y16" t="n">
-        <v>595.52964222602</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5509,58 +5509,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>412.607977814708</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211719</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M18" t="n">
-        <v>1028.859951698067</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O18" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>729.1316371486756</v>
+        <v>552.3735683412854</v>
       </c>
       <c r="C19" t="n">
-        <v>560.1954542207687</v>
+        <v>383.4373854133785</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>383.4373854133785</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>383.4373854133785</v>
       </c>
       <c r="F19" t="n">
         <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V19" t="n">
-        <v>1498.916270557902</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.499100520942</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X19" t="n">
-        <v>981.5095496229242</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="Y19" t="n">
-        <v>910.7801019789154</v>
+        <v>734.0220331715251</v>
       </c>
     </row>
     <row r="20">
@@ -5749,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5764,19 +5764,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5788,13 +5788,13 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977053</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>584.4452354807079</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>415.509052552801</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>1298.996260473455</v>
+        <v>1370.009587771633</v>
       </c>
       <c r="U22" t="n">
-        <v>1128.546893723556</v>
+        <v>1370.009587771633</v>
       </c>
       <c r="V22" t="n">
-        <v>873.8624055176685</v>
+        <v>1115.325099565746</v>
       </c>
       <c r="W22" t="n">
-        <v>584.4452354807079</v>
+        <v>825.9079295287855</v>
       </c>
       <c r="X22" t="n">
-        <v>584.4452354807079</v>
+        <v>597.9183786307682</v>
       </c>
       <c r="Y22" t="n">
-        <v>584.4452354807079</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>584.4452354807079</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C25" t="n">
-        <v>415.509052552801</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655738</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286132</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X25" t="n">
-        <v>665.6859735286132</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y25" t="n">
-        <v>665.6859735286132</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,19 +6220,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6250,28 +6250,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6302,25 +6302,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M27" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
         <v>1701.09316900344</v>
@@ -6451,40 +6451,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="C31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T31" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U31" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V31" t="n">
-        <v>902.2298817210801</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W31" t="n">
-        <v>612.8127116841194</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X31" t="n">
-        <v>612.8127116841194</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y31" t="n">
-        <v>392.0201325405893</v>
+        <v>213.9110074201021</v>
       </c>
     </row>
     <row r="32">
@@ -6676,7 +6676,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6685,49 +6685,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
@@ -6736,16 +6736,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>584.4452354807079</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>415.509052552801</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1283.500421245926</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U34" t="n">
-        <v>1283.500421245926</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>1283.500421245926</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>994.083251208965</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>766.0937003109476</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>766.0937003109476</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6925,19 +6925,19 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6952,13 +6952,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,19 +7019,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
         <v>97.21709146028584</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1421.865983987256</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1421.865983987256</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>1167.181495781369</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>877.7643257444088</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>649.7747748463914</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>428.9821957028613</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7168,13 +7168,13 @@
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7189,13 +7189,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>1098.712528333286</v>
+        <v>1271.749344574921</v>
       </c>
       <c r="V40" t="n">
-        <v>844.0280401273991</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W40" t="n">
-        <v>554.6108700904385</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X40" t="n">
-        <v>415.8104215925219</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y40" t="n">
-        <v>415.8104215925219</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2328.464088060424</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.21084526296</v>
+        <v>1306.350032969985</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011506</v>
+        <v>1017.221394183544</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952637</v>
+        <v>762.5369059776569</v>
       </c>
       <c r="W43" t="n">
-        <v>325.2066423583032</v>
+        <v>473.1197359406963</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
     </row>
     <row r="44">
@@ -7639,10 +7639,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7733,16 +7733,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8072,7 +8072,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360584</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8303,10 +8303,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8546,7 +8546,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783523</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>96.03744927814714</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>29.47535963978135</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>234.4116509503174</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,28 +9245,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>62.79465928983228</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>52.4973336130526</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10196,7 +10196,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.096615172074</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11077,13 +11077,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11381,7 +11381,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>81.07318557160991</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>69.25338908203912</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,7 +23472,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>135.4603999687102</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,16 +23706,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>228.6728233935894</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>28.55652547274714</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>148.5625001845261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,7 +24141,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>93.92994509998215</v>
       </c>
       <c r="U22" t="n">
-        <v>117.4924793161772</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>99.40364951451103</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>50.96659166315956</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24417,7 +24417,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24840,16 +24840,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>51.71984429840978</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>145.5762807575546</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
@@ -25122,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>118.250222643325</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>103.0576765518769</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>145.2677773534497</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25563,10 +25563,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
@@ -25605,7 +25605,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>61.34209567542487</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>88.29721137609974</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25836,13 +25836,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>30.90698584635106</v>
       </c>
       <c r="U43" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>894073.2603407085</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>894073.2603407084</v>
+        <v>894073.2603407085</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>894073.2603407083</v>
+        <v>894073.2603407084</v>
       </c>
     </row>
     <row r="12">
@@ -26316,28 +26316,28 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="E2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="F2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="G2" t="n">
-        <v>488786.3246721358</v>
+        <v>488786.3246721359</v>
       </c>
       <c r="H2" t="n">
         <v>488786.3246721359</v>
       </c>
       <c r="I2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="J2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="K2" t="n">
         <v>488786.3246721359</v>
@@ -26346,13 +26346,13 @@
         <v>488786.324672136</v>
       </c>
       <c r="M2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="N2" t="n">
-        <v>488786.324672136</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="O2" t="n">
-        <v>488786.3246721359</v>
+        <v>488786.3246721358</v>
       </c>
       <c r="P2" t="n">
         <v>488786.3246721358</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
         <v>156774.9582512226</v>
@@ -26432,7 +26432,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="H4" t="n">
         <v>15045.6696214391</v>
@@ -26444,19 +26444,19 @@
         <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="L4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="O4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-316450.8093639995</v>
+        <v>-316450.8093639997</v>
       </c>
       <c r="C6" t="n">
-        <v>273517.0698505449</v>
+        <v>273517.069850545</v>
       </c>
       <c r="D6" t="n">
         <v>273517.069850545</v>
       </c>
       <c r="E6" t="n">
-        <v>-144381.2986346376</v>
+        <v>-143504.1665008885</v>
       </c>
       <c r="F6" t="n">
-        <v>380778.7378422584</v>
+        <v>381655.869976008</v>
       </c>
       <c r="G6" t="n">
-        <v>380778.7378422584</v>
+        <v>381655.869976008</v>
       </c>
       <c r="H6" t="n">
-        <v>380778.7378422585</v>
+        <v>381655.869976008</v>
       </c>
       <c r="I6" t="n">
-        <v>380778.7378422586</v>
+        <v>381655.8699760078</v>
       </c>
       <c r="J6" t="n">
-        <v>204355.5186496656</v>
+        <v>205232.650783415</v>
       </c>
       <c r="K6" t="n">
-        <v>380778.7378422585</v>
+        <v>381655.869976008</v>
       </c>
       <c r="L6" t="n">
-        <v>380778.7378422586</v>
+        <v>381655.8699760081</v>
       </c>
       <c r="M6" t="n">
-        <v>245977.7226084214</v>
+        <v>246854.8547421707</v>
       </c>
       <c r="N6" t="n">
-        <v>380778.7378422586</v>
+        <v>381655.8699760079</v>
       </c>
       <c r="O6" t="n">
-        <v>380778.7378422585</v>
+        <v>381655.8699760079</v>
       </c>
       <c r="P6" t="n">
-        <v>380778.7378422584</v>
+        <v>381655.8699760081</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,37 +26746,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26795,10 +26795,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>112.9202716085207</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.44186903370947</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>101.1232790472853</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>359.7616442309947</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>37.74728150147314</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>123.4723713253233</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27827,7 +27827,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>144.285229777382</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>248.4041470984184</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>44.41868456822058</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>36.48462580370253</v>
+        <v>7.361875848788259</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,31 +32165,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458548</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,31 +32402,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,7 +32703,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32712,31 +32712,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32785,31 +32785,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,7 +32876,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,7 +32940,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32949,31 +32949,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33022,31 +33022,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,7 +33113,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,7 +33177,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33186,31 +33186,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33259,31 +33259,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,7 +33350,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839187</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35023,10 +35023,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35254,7 +35254,7 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047527</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,7 +35266,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>137.9476282330538</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>278.7330645958058</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>384.9870895382566</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,28 +35965,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560242</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M18" t="n">
-        <v>373.2190363402984</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>385.6919070110654</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36363,25 +36363,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36454,7 +36454,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36515,19 +36515,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36536,7 +36536,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36691,7 +36691,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36752,19 +36752,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36773,7 +36773,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36837,25 +36837,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,13 +36913,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36928,7 +36928,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37010,7 +37010,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,22 +37150,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,22 +37387,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
         <v>310.4243770504662</v>
@@ -38113,7 +38113,7 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
